--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/reproductive_history/reproductive_history.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/reproductive_history/reproductive_history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="3420" windowWidth="28340" windowHeight="15940" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20540" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>type</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>parent_household_id</t>
+  </si>
+  <si>
+    <t>parent_2</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1505,24 +1508,24 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1538,55 +1541,59 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7"/>
@@ -1599,6 +1606,10 @@
     <row r="27" spans="2:3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1815,8 +1826,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
